--- a/mbs-perturbation/nano/svm/nano-svm-default-results.xlsx
+++ b/mbs-perturbation/nano/svm/nano-svm-default-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9892523364485981</v>
+        <v>0.8467289719626169</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9653476414039794</v>
+        <v>0.8969371786273195</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9957746478873239</v>
+        <v>0.9582159624413146</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5158450704225352</v>
+        <v>0.5857981220657277</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5369718309859155</v>
+        <v>0.6325117370892019</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.04444444444444444</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.05106382978723405</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8006383054296705</v>
+        <v>0.7840383944372361</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/svm/nano-svm-default-results.xlsx
+++ b/mbs-perturbation/nano/svm/nano-svm-default-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8467289719626169</v>
+        <v>0.5187194791101465</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8969371786273195</v>
+        <v>0.9186109603906676</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.3125000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9582159624413146</v>
+        <v>0.7941008018327605</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2553191489361702</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5857981220657277</v>
+        <v>0.9085083174256886</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6325117370892019</v>
+        <v>0.8253340605399508</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04444444444444444</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06</v>
+        <v>0.05555555555555556</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05106382978723405</v>
+        <v>0.06250000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7840383944372361</v>
+        <v>0.7930547238598429</v>
       </c>
     </row>
   </sheetData>
